--- a/database/forex/USD.xlsx
+++ b/database/forex/USD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="940" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="940" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="cpi mom" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="unemployment rate" sheetId="9" r:id="rId11"/>
     <sheet name="NFP" sheetId="13" r:id="rId12"/>
     <sheet name="personal income" sheetId="10" r:id="rId13"/>
+    <sheet name="Labour Force Participation" sheetId="14" r:id="rId14"/>
+    <sheet name="jolts" sheetId="15" r:id="rId15"/>
+    <sheet name="countinuing jobless claim" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1187">
   <si>
     <t>09/13/2022 (Aug)</t>
   </si>
@@ -3250,13 +3253,355 @@
   </si>
   <si>
     <t>11/06/2009 (Oct)</t>
+  </si>
+  <si>
+    <t>02/03/2023 (Jan)</t>
+  </si>
+  <si>
+    <t>01/06/2023 (Dec)</t>
+  </si>
+  <si>
+    <t>12/02/2022 (Nov)</t>
+  </si>
+  <si>
+    <t>02/01/2023 (Dec)</t>
+  </si>
+  <si>
+    <t>01/04/2023 (Nov)</t>
+  </si>
+  <si>
+    <t>11/30/2022 (Oct)</t>
+  </si>
+  <si>
+    <t>11/01/2022 (Sep)</t>
+  </si>
+  <si>
+    <t>10/04/2022 (Aug)</t>
+  </si>
+  <si>
+    <t>08/30/2022 (Jul)</t>
+  </si>
+  <si>
+    <t>08/02/2022 (Jun)</t>
+  </si>
+  <si>
+    <t>07/06/2022 (May)</t>
+  </si>
+  <si>
+    <t>06/01/2022 (Mar)</t>
+  </si>
+  <si>
+    <t>05/03/2022 (Mar)</t>
+  </si>
+  <si>
+    <t>03/29/2022 (Feb)</t>
+  </si>
+  <si>
+    <t>03/09/2022 (Jan)</t>
+  </si>
+  <si>
+    <t>02/01/2022 (Dec)</t>
+  </si>
+  <si>
+    <t>01/04/2022 (Nov)</t>
+  </si>
+  <si>
+    <t>12/08/2021 (Oct)</t>
+  </si>
+  <si>
+    <t>11/12/2021 (Sep)</t>
+  </si>
+  <si>
+    <t>10/12/2021 (Aug)</t>
+  </si>
+  <si>
+    <t>09/08/2021 (Jul)</t>
+  </si>
+  <si>
+    <t>08/09/2021 (Jun)</t>
+  </si>
+  <si>
+    <t>07/07/2021 (May)</t>
+  </si>
+  <si>
+    <t>06/08/2021 (Apr)</t>
+  </si>
+  <si>
+    <t>05/11/2021 (Mar)</t>
+  </si>
+  <si>
+    <t>04/06/2021 (Feb)</t>
+  </si>
+  <si>
+    <t>03/11/2021 (Jan)</t>
+  </si>
+  <si>
+    <t>02/09/2021 (Dec)</t>
+  </si>
+  <si>
+    <t>01/12/2021 (Nov)</t>
+  </si>
+  <si>
+    <t>12/09/2020 (Oct)</t>
+  </si>
+  <si>
+    <t>11/10/2020 (Sep)</t>
+  </si>
+  <si>
+    <t>10/06/2020 (Aug)</t>
+  </si>
+  <si>
+    <t>09/09/2020 (Jul)</t>
+  </si>
+  <si>
+    <t>08/10/2020 (Jun)</t>
+  </si>
+  <si>
+    <t>07/07/2020 (May)</t>
+  </si>
+  <si>
+    <t>06/09/2020 (Apr)</t>
+  </si>
+  <si>
+    <t>05/15/2020 (Mar)</t>
+  </si>
+  <si>
+    <t>04/07/2020 (Feb)</t>
+  </si>
+  <si>
+    <t>03/17/2020 (Jan)</t>
+  </si>
+  <si>
+    <t>02/11/2020 (Dec)</t>
+  </si>
+  <si>
+    <t>01/17/2020 (Nov)</t>
+  </si>
+  <si>
+    <t>12/17/2019 (Oct)</t>
+  </si>
+  <si>
+    <t>11/05/2019 (Sep)</t>
+  </si>
+  <si>
+    <t>10/09/2019 (Aug)</t>
+  </si>
+  <si>
+    <t>09/10/2019 (Jul)</t>
+  </si>
+  <si>
+    <t>08/06/2019 (Jun)</t>
+  </si>
+  <si>
+    <t>07/09/2019 (May)</t>
+  </si>
+  <si>
+    <t>06/10/2019 (Apr)</t>
+  </si>
+  <si>
+    <t>05/07/2019 (Mar)</t>
+  </si>
+  <si>
+    <t>04/09/2019 (Feb)</t>
+  </si>
+  <si>
+    <t>03/15/2019 (Jan)</t>
+  </si>
+  <si>
+    <t>02/12/2019 (Dec)</t>
+  </si>
+  <si>
+    <t>01/08/2019 (Nov)</t>
+  </si>
+  <si>
+    <t>12/10/2018 (Oct)</t>
+  </si>
+  <si>
+    <t>11/06/2018 (Sep)</t>
+  </si>
+  <si>
+    <t>10/16/2018 (Aug)</t>
+  </si>
+  <si>
+    <t>09/11/2018 (Jul)</t>
+  </si>
+  <si>
+    <t>08/07/2018 (Jun)</t>
+  </si>
+  <si>
+    <t>07/10/2018 (May)</t>
+  </si>
+  <si>
+    <t>06/05/2018 (Apr)</t>
+  </si>
+  <si>
+    <t>05/08/2018 (Mar)</t>
+  </si>
+  <si>
+    <t>04/13/2018 (Feb)</t>
+  </si>
+  <si>
+    <t>03/16/2018 (Jan)</t>
+  </si>
+  <si>
+    <t>02/06/2018 (Dec)</t>
+  </si>
+  <si>
+    <t>01/09/2018 (Nov)</t>
+  </si>
+  <si>
+    <t>12/11/2017 (Oct)</t>
+  </si>
+  <si>
+    <t>11/07/2017 (Sep)</t>
+  </si>
+  <si>
+    <t>10/11/2017 (Aug)</t>
+  </si>
+  <si>
+    <t>09/12/2017 (Jul)</t>
+  </si>
+  <si>
+    <t>08/08/2017 (Jun)</t>
+  </si>
+  <si>
+    <t>07/11/2017 (May)</t>
+  </si>
+  <si>
+    <t>06/06/2017 (Apr)</t>
+  </si>
+  <si>
+    <t>05/09/2017 (Mar)</t>
+  </si>
+  <si>
+    <t>04/11/2017 (Feb)</t>
+  </si>
+  <si>
+    <t>03/16/2017 (Jan)</t>
+  </si>
+  <si>
+    <t>02/07/2017 (Dec)</t>
+  </si>
+  <si>
+    <t>01/10/2017 (Nov)</t>
+  </si>
+  <si>
+    <t>12/07/2016 (Oct)</t>
+  </si>
+  <si>
+    <t>11/08/2016 (Sep)</t>
+  </si>
+  <si>
+    <t>10/12/2016 (Aug)</t>
+  </si>
+  <si>
+    <t>09/07/2016 (Jul)</t>
+  </si>
+  <si>
+    <t>08/10/2016 (Jun)</t>
+  </si>
+  <si>
+    <t>07/12/2016 (May)</t>
+  </si>
+  <si>
+    <t>06/08/2016 (Apr)</t>
+  </si>
+  <si>
+    <t>05/10/2016 (Mar)</t>
+  </si>
+  <si>
+    <t>04/05/2016 (Feb)</t>
+  </si>
+  <si>
+    <t>03/17/2016 (Jan)</t>
+  </si>
+  <si>
+    <t>02/09/2016 (Dec)</t>
+  </si>
+  <si>
+    <t>01/12/2016 (Nov)</t>
+  </si>
+  <si>
+    <t>12/08/2015 (Oct)</t>
+  </si>
+  <si>
+    <t>11/12/2015 (Sep)</t>
+  </si>
+  <si>
+    <t>10/16/2015 (Aug)</t>
+  </si>
+  <si>
+    <t>09/09/2015 (Jul)</t>
+  </si>
+  <si>
+    <t>08/12/2015 (Jun)</t>
+  </si>
+  <si>
+    <t>07/07/2015 (May)</t>
+  </si>
+  <si>
+    <t>06/09/2015 (Apr)</t>
+  </si>
+  <si>
+    <t>05/12/2015 (Mar)</t>
+  </si>
+  <si>
+    <t>04/07/2015 (Feb)</t>
+  </si>
+  <si>
+    <t>03/10/2015 (Jan)</t>
+  </si>
+  <si>
+    <t>02/10/2015 (Dec)</t>
+  </si>
+  <si>
+    <t>01/13/2015 (Nov)</t>
+  </si>
+  <si>
+    <t>12/09/2014 (Oct)</t>
+  </si>
+  <si>
+    <t>11/13/2014 (Sep)</t>
+  </si>
+  <si>
+    <t>10/07/2014 (Aug)</t>
+  </si>
+  <si>
+    <t>09/09/2014 (Jul)</t>
+  </si>
+  <si>
+    <t>08/12/2014 (Jun)</t>
+  </si>
+  <si>
+    <t>07/08/2014 (May)</t>
+  </si>
+  <si>
+    <t>06/10/2014 (Apr)</t>
+  </si>
+  <si>
+    <t>05/09/2014 (Mar)</t>
+  </si>
+  <si>
+    <t>04/08/2014 (Feb)</t>
+  </si>
+  <si>
+    <t>03/11/2014 (Sep)</t>
+  </si>
+  <si>
+    <t>02/11/2014 (Dec)</t>
+  </si>
+  <si>
+    <t>01/17/2014 (Nov)</t>
+  </si>
+  <si>
+    <t>12/10/2013 (Oct)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3272,8 +3617,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3283,6 +3634,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,12 +3656,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6170,10 +6531,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,7 +6542,7 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -6195,505 +6556,509 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1.41</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1070</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>3.7</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>0.71</v>
       </c>
-      <c r="D2">
+      <c r="D5" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1071</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>3.5</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>-1.96</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>907</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>3.7</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>2.2400000000000002</v>
-      </c>
-      <c r="D4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>908</v>
-      </c>
-      <c r="B5">
-        <v>3.5</v>
-      </c>
-      <c r="C5">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="D5">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>909</v>
-      </c>
-      <c r="B6">
-        <v>3.6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B7">
-        <v>3.6</v>
-      </c>
-      <c r="C7">
-        <v>0.83</v>
       </c>
       <c r="D7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D8">
         <v>3.6</v>
       </c>
-      <c r="C8">
-        <v>0.75</v>
-      </c>
-      <c r="D8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>564</v>
+        <v>909</v>
       </c>
       <c r="B9">
         <v>3.6</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>3.6</v>
+      </c>
+      <c r="C10">
+        <v>0.83</v>
+      </c>
+      <c r="D10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11">
+        <v>3.6</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12">
+        <v>3.6</v>
+      </c>
+      <c r="C12">
         <v>-0.75</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <v>3.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>911</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>3.8</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>-0.67</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>912</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>0.86</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>913</v>
       </c>
-      <c r="B12">
+      <c r="B15">
         <v>3.9</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>-1.58</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>455</v>
       </c>
-      <c r="B13">
+      <c r="B16">
         <v>4.2</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>-1.58</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>914</v>
-      </c>
-      <c r="B14">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C14">
-        <v>-0.53</v>
-      </c>
-      <c r="D14">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>915</v>
-      </c>
-      <c r="B15">
-        <v>4.7</v>
-      </c>
-      <c r="C15">
-        <v>-1.4</v>
-      </c>
-      <c r="D15">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>458</v>
-      </c>
-      <c r="B16">
-        <v>5.2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>5.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B17">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C17">
-        <v>-1.85</v>
+        <v>-0.53</v>
       </c>
       <c r="D17">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B18">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C18">
-        <v>0.89</v>
+        <v>-1.4</v>
       </c>
       <c r="D18">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>918</v>
+        <v>458</v>
       </c>
       <c r="B19">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="C19">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="C20">
-        <v>2.21</v>
+        <v>-1.85</v>
       </c>
       <c r="D20">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B22">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="C22">
-        <v>-0.39</v>
+        <v>-0.45</v>
       </c>
       <c r="D22">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B23">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>-0.8</v>
+        <v>2.21</v>
       </c>
       <c r="D23">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B24">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B25">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="C25">
-        <v>-0.22</v>
+        <v>-0.39</v>
       </c>
       <c r="D25">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B26">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="C26">
-        <v>-0.34</v>
+        <v>-0.8</v>
       </c>
       <c r="D26">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B27">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="C27">
-        <v>-0.12</v>
+        <v>-0.21</v>
       </c>
       <c r="D27">
-        <v>8.1999999999999993</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B28">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="C28">
-        <v>-0.52</v>
+        <v>-0.22</v>
       </c>
       <c r="D28">
-        <v>9.8000000000000007</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B29">
-        <v>10.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="C29">
-        <v>-0.11</v>
+        <v>-0.34</v>
       </c>
       <c r="D29">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>7.9</v>
       </c>
       <c r="C30">
-        <v>-0.44</v>
+        <v>-0.12</v>
       </c>
       <c r="D30">
-        <v>12.3</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B31">
-        <v>13.2</v>
+        <v>8.4</v>
       </c>
       <c r="C31">
-        <v>-19.93</v>
+        <v>-0.52</v>
       </c>
       <c r="D31">
-        <v>19.8</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B32">
-        <v>14.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C32">
-        <v>2.68</v>
+        <v>-0.11</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>473</v>
+        <v>929</v>
       </c>
       <c r="B33">
-        <v>4.4000000000000004</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>8.02</v>
+        <v>-0.44</v>
       </c>
       <c r="D33">
-        <v>3.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B34">
-        <v>3.5</v>
+        <v>13.2</v>
       </c>
       <c r="C34">
-        <v>-0.98</v>
+        <v>-19.93</v>
       </c>
       <c r="D34">
-        <v>3.6</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B35">
-        <v>3.5</v>
+        <v>14.7</v>
       </c>
       <c r="C35">
-        <v>1.25</v>
+        <v>2.68</v>
       </c>
       <c r="D35">
-        <v>3.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>934</v>
+        <v>473</v>
       </c>
       <c r="B36">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>8.02</v>
       </c>
       <c r="D36">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C37">
-        <v>-1.02</v>
+        <v>-0.98</v>
       </c>
       <c r="D37">
         <v>3.6</v>
@@ -6701,217 +7066,217 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>590</v>
+        <v>933</v>
       </c>
       <c r="B38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B39">
+        <v>3.6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>3.5</v>
-      </c>
-      <c r="C39">
-        <v>-2.04</v>
-      </c>
-      <c r="D39">
-        <v>3.7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B40">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="D40">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>938</v>
+        <v>590</v>
       </c>
       <c r="B41">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="B42">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="C42">
-        <v>0.98</v>
+        <v>-2.04</v>
       </c>
       <c r="D42">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B43">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>483</v>
+        <v>938</v>
       </c>
       <c r="B44">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C44">
-        <v>-1.96</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B45">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D45">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B46">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="C46">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>599</v>
+        <v>483</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C47">
-        <v>0.98</v>
+        <v>-1.96</v>
       </c>
       <c r="D47">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B48">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="C48">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B49">
         <v>3.8</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.98</v>
       </c>
       <c r="D49">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>945</v>
+        <v>599</v>
       </c>
       <c r="B50">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="D50">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B51">
+        <v>3.9</v>
+      </c>
+      <c r="C51">
+        <v>3.16</v>
+      </c>
+      <c r="D51">
         <v>3.7</v>
-      </c>
-      <c r="C51">
-        <v>-0.86</v>
-      </c>
-      <c r="D51">
-        <v>3.8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B52">
         <v>3.8</v>
       </c>
       <c r="C52">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>491</v>
+        <v>945</v>
       </c>
       <c r="B53">
         <v>3.8</v>
@@ -6920,18 +7285,18 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="C54">
-        <v>2.2400000000000002</v>
+        <v>-0.86</v>
       </c>
       <c r="D54">
         <v>3.8</v>
@@ -6939,251 +7304,251 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>606</v>
+        <v>947</v>
       </c>
       <c r="B55">
         <v>3.8</v>
       </c>
       <c r="C55">
-        <v>-1.34</v>
+        <v>0.86</v>
       </c>
       <c r="D55">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>949</v>
+        <v>491</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C56">
-        <v>-2.04</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B57">
         <v>4</v>
       </c>
       <c r="C57">
-        <v>1.58</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>951</v>
+        <v>606</v>
       </c>
       <c r="B58">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="C58">
-        <v>1.25</v>
+        <v>-1.34</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-2.04</v>
       </c>
       <c r="D59">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>950</v>
       </c>
       <c r="B60">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="D60">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B61">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D61">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>500</v>
+        <v>952</v>
       </c>
       <c r="B62">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>954</v>
+        <v>498</v>
       </c>
       <c r="B63">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C63">
-        <v>-1.71</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>614</v>
+        <v>953</v>
       </c>
       <c r="B64">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C64">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>955</v>
+        <v>500</v>
       </c>
       <c r="B65">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
       <c r="D65">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B66">
         <v>4.3</v>
       </c>
       <c r="C66">
-        <v>0.86</v>
+        <v>-1.71</v>
       </c>
       <c r="D66">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>957</v>
+        <v>614</v>
       </c>
       <c r="B67">
         <v>4.4000000000000004</v>
       </c>
       <c r="C67">
-        <v>-0.83</v>
+        <v>0.86</v>
       </c>
       <c r="D67">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B68">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C68">
-        <v>-1.36</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B69">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C69">
-        <v>-1.47</v>
+        <v>0.86</v>
       </c>
       <c r="D69">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B70">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
       <c r="D70">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>509</v>
+        <v>958</v>
       </c>
       <c r="B71">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C71">
-        <v>0.68</v>
+        <v>-1.36</v>
       </c>
       <c r="D71">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B72">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>-1.47</v>
       </c>
       <c r="D72">
         <v>4.7</v>
@@ -7191,139 +7556,139 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B73">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>4.7</v>
-      </c>
-      <c r="C73">
-        <v>-7.5</v>
-      </c>
-      <c r="D73">
-        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>963</v>
+        <v>509</v>
       </c>
       <c r="B74">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="D74">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C75">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B76">
+        <v>4.7</v>
+      </c>
+      <c r="C76">
+        <v>-7.5</v>
+      </c>
+      <c r="D76">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="C76">
-        <v>0.86</v>
-      </c>
-      <c r="D76">
-        <v>4.8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B77">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C77">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.86</v>
+      </c>
+      <c r="D78">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="C78">
-        <v>0.98</v>
-      </c>
-      <c r="D78">
-        <v>4.8</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>516</v>
+        <v>965</v>
       </c>
       <c r="B79">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C79">
+        <v>0.86</v>
+      </c>
+      <c r="D79">
         <v>4.8</v>
-      </c>
-      <c r="C79">
-        <v>-3.16</v>
-      </c>
-      <c r="D79">
-        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B80">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>631</v>
+        <v>967</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C81">
-        <v>2.04</v>
+        <v>0.98</v>
       </c>
       <c r="D81">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>969</v>
+        <v>516</v>
       </c>
       <c r="B82">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-3.16</v>
       </c>
       <c r="D82">
         <v>4.9000000000000004</v>
@@ -7331,13 +7696,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B83">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C83">
-        <v>-2.04</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -7345,49 +7710,49 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>971</v>
+        <v>631</v>
       </c>
       <c r="B84">
         <v>5</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B85">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B86">
+        <v>4.8</v>
+      </c>
+      <c r="C86">
+        <v>-2.04</v>
+      </c>
+      <c r="D86">
         <v>5</v>
-      </c>
-      <c r="C86">
-        <v>-1.34</v>
-      </c>
-      <c r="D86">
-        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -7396,466 +7761,466 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B88">
         <v>5.0999999999999996</v>
       </c>
       <c r="C88">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B89">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-1.34</v>
       </c>
       <c r="D89">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B90">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C90">
-        <v>-1.34</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B91">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C91">
-        <v>1.34</v>
+        <v>-1.58</v>
       </c>
       <c r="D91">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B92">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B93">
+        <v>5.3</v>
+      </c>
+      <c r="C93">
+        <v>-1.34</v>
+      </c>
+      <c r="D93">
         <v>5.4</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>5.5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B94">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C94">
-        <v>-0.98</v>
+        <v>1.34</v>
       </c>
       <c r="D94">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B95">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C95">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B96">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="C96">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B97">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.98</v>
       </c>
       <c r="D97">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B98">
         <v>5.7</v>
       </c>
       <c r="C98">
-        <v>-0.86</v>
+        <v>1.34</v>
       </c>
       <c r="D98">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>536</v>
+        <v>983</v>
       </c>
       <c r="B99">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="C99">
-        <v>-1.41</v>
+        <v>-0.98</v>
       </c>
       <c r="D99">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B100">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>651</v>
+        <v>985</v>
       </c>
       <c r="B101">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="C101">
-        <v>0.63</v>
+        <v>-0.86</v>
       </c>
       <c r="D101">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B102">
+        <v>5.9</v>
+      </c>
+      <c r="C102">
+        <v>-1.41</v>
+      </c>
+      <c r="D102">
         <v>6.1</v>
-      </c>
-      <c r="C102">
-        <v>-1.34</v>
-      </c>
-      <c r="D102">
-        <v>6.3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B103">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C103">
-        <v>-0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>988</v>
+        <v>651</v>
       </c>
       <c r="B104">
         <v>6.2</v>
       </c>
       <c r="C104">
-        <v>-1.88</v>
+        <v>0.63</v>
       </c>
       <c r="D104">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>989</v>
+        <v>539</v>
       </c>
       <c r="B105">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="C105">
-        <v>0.71</v>
+        <v>-1.34</v>
       </c>
       <c r="D105">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B106">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="C106">
-        <v>0.98</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="D106">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B107">
+        <v>6.2</v>
+      </c>
+      <c r="C107">
+        <v>-1.88</v>
+      </c>
+      <c r="D107">
         <v>6.6</v>
-      </c>
-      <c r="C107">
-        <v>-0.98</v>
-      </c>
-      <c r="D107">
-        <v>6.7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B108">
         <v>6.7</v>
       </c>
       <c r="C108">
-        <v>-4.74</v>
+        <v>0.71</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B109">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="C109">
-        <v>-2.5</v>
+        <v>0.98</v>
       </c>
       <c r="D109">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B110">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>-0.98</v>
       </c>
       <c r="D110">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B111">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="C111">
-        <v>-1.02</v>
+        <v>-4.74</v>
       </c>
       <c r="D111">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B112">
+        <v>6.9</v>
+      </c>
+      <c r="C112">
+        <v>-2.5</v>
+      </c>
+      <c r="D112">
         <v>7.2</v>
-      </c>
-      <c r="C112">
-        <v>-1.02</v>
-      </c>
-      <c r="D112">
-        <v>7.4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B113">
+        <v>7.2</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
         <v>7.3</v>
-      </c>
-      <c r="C113">
-        <v>-0.83</v>
-      </c>
-      <c r="D113">
-        <v>7.5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B114">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="C114">
-        <v>0.83</v>
+        <v>-1.02</v>
       </c>
       <c r="D114">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B115">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="C115">
-        <v>0.83</v>
+        <v>-1.02</v>
       </c>
       <c r="D115">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>547</v>
+        <v>997</v>
       </c>
       <c r="B116">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="C116">
         <v>-0.83</v>
       </c>
       <c r="D116">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B117">
         <v>7.5</v>
       </c>
       <c r="C117">
-        <v>-0.86</v>
+        <v>0.83</v>
       </c>
       <c r="D117">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B118">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="C118">
-        <v>-1.08</v>
+        <v>0.83</v>
       </c>
       <c r="D118">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>669</v>
+        <v>547</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="C119">
-        <v>0.57999999999999996</v>
+        <v>-0.83</v>
       </c>
       <c r="D119">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>548</v>
+        <v>1000</v>
       </c>
       <c r="B120">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="C120">
-        <v>0.57999999999999996</v>
+        <v>-0.86</v>
       </c>
       <c r="D120">
         <v>7.7</v>
@@ -7863,13 +8228,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B121">
         <v>7.7</v>
       </c>
       <c r="C121">
-        <v>-0.56000000000000005</v>
+        <v>-1.08</v>
       </c>
       <c r="D121">
         <v>7.9</v>
@@ -7877,69 +8242,69 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1003</v>
+        <v>669</v>
       </c>
       <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D122">
         <v>7.8</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>7.9</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1004</v>
+        <v>548</v>
       </c>
       <c r="B123">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="C123">
-        <v>-3.43</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D123">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B124">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="C124">
-        <v>-2.2400000000000002</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="D124">
-        <v>8.3000000000000007</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>549</v>
+        <v>1003</v>
       </c>
       <c r="B125">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="C125">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B126">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-3.43</v>
       </c>
       <c r="D126">
         <v>8.1999999999999993</v>
@@ -7947,27 +8312,27 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>677</v>
+        <v>1005</v>
       </c>
       <c r="B127">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="C127">
-        <v>1.34</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="D127">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1007</v>
+        <v>549</v>
       </c>
       <c r="B128">
         <v>8.1999999999999993</v>
       </c>
       <c r="C128">
-        <v>-0.98</v>
+        <v>1.34</v>
       </c>
       <c r="D128">
         <v>8.1999999999999993</v>
@@ -7975,265 +8340,265 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B129">
         <v>8.1999999999999993</v>
       </c>
       <c r="C129">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1009</v>
+        <v>677</v>
       </c>
       <c r="B130">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="D130">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>550</v>
+        <v>1007</v>
       </c>
       <c r="B131">
-        <v>8.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C131">
-        <v>-1.71</v>
+        <v>-0.98</v>
       </c>
       <c r="D131">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B132">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C132">
-        <v>-1.83</v>
+        <v>-0.98</v>
       </c>
       <c r="D132">
-        <v>8.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B133">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C133">
-        <v>-2.74</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1012</v>
+        <v>550</v>
       </c>
       <c r="B134">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C134">
-        <v>-0.83</v>
+        <v>-1.71</v>
       </c>
       <c r="D134">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-1.83</v>
       </c>
       <c r="D135">
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B136">
+        <v>8.6</v>
+      </c>
+      <c r="C136">
+        <v>-2.74</v>
+      </c>
+      <c r="D136">
         <v>9</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>9.1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C137">
-        <v>-0.56999999999999995</v>
+        <v>-0.83</v>
       </c>
       <c r="D137">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
         <v>9.1</v>
-      </c>
-      <c r="C138">
-        <v>0.76</v>
-      </c>
-      <c r="D138">
-        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>551</v>
+        <v>1014</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B140">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="C140">
-        <v>0.86</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D140">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>678</v>
+        <v>1016</v>
       </c>
       <c r="B141">
+        <v>9.1</v>
+      </c>
+      <c r="C141">
+        <v>0.76</v>
+      </c>
+      <c r="D141">
         <v>9</v>
-      </c>
-      <c r="C141">
-        <v>-0.41</v>
-      </c>
-      <c r="D141">
-        <v>8.9</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1018</v>
+        <v>551</v>
       </c>
       <c r="B142">
         <v>9</v>
       </c>
       <c r="C142">
-        <v>-0.83</v>
+        <v>0.86</v>
       </c>
       <c r="D142">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B143">
         <v>9.1</v>
       </c>
       <c r="C143">
-        <v>-3.08</v>
+        <v>0.86</v>
       </c>
       <c r="D143">
-        <v>9.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1020</v>
+        <v>678</v>
       </c>
       <c r="B144">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="C144">
-        <v>-2.74</v>
+        <v>-0.41</v>
       </c>
       <c r="D144">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>552</v>
+        <v>1018</v>
       </c>
       <c r="B145">
-        <v>9.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>1.83</v>
+        <v>-0.83</v>
       </c>
       <c r="D145">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B146">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-3.08</v>
       </c>
       <c r="D146">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B147">
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C147">
-        <v>-0.62</v>
+        <v>-2.74</v>
       </c>
       <c r="D147">
         <v>9.6999999999999993</v>
@@ -8241,13 +8606,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B148">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="D148">
         <v>9.6</v>
@@ -8255,13 +8620,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B149">
         <v>9.4</v>
       </c>
       <c r="C149">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>9.6</v>
@@ -8269,66 +8634,66 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B150">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="C150">
-        <v>-1.55</v>
+        <v>-0.62</v>
       </c>
       <c r="D150">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1025</v>
+        <v>553</v>
       </c>
       <c r="B151">
+        <v>9.5</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
         <v>9.6</v>
-      </c>
-      <c r="D151">
-        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B152">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="C152">
-        <v>1.34</v>
+        <v>-0.62</v>
       </c>
       <c r="D152">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B153">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
       <c r="D153">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B154">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C154">
-        <v>-0.43</v>
+        <v>9.6</v>
       </c>
       <c r="D154">
         <v>9.8000000000000007</v>
@@ -8336,21 +8701,21 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B155">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="C155">
-        <v>-2.29</v>
+        <v>1.34</v>
       </c>
       <c r="D155">
-        <v>10.1</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B156">
         <v>9.9</v>
@@ -8359,392 +8724,401 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B157">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C157">
-        <v>-1.08</v>
+        <v>-0.43</v>
       </c>
       <c r="D157">
-        <v>10.199999999999999</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B158">
-        <v>10</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C158">
+        <v>-2.29</v>
       </c>
       <c r="D158">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B159">
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B160">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="C160">
-        <v>1.41</v>
+        <v>-1.08</v>
       </c>
       <c r="D160">
-        <v>9.5</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B161">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D161">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B162">
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B163">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="C163">
-        <v>2.67</v>
+        <v>1.41</v>
       </c>
       <c r="D163">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B164">
-        <v>9</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D164">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>554</v>
+        <v>1036</v>
       </c>
       <c r="B165">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C165">
-        <v>0.74</v>
+        <v>9.5</v>
       </c>
       <c r="D165">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B166">
-        <v>8.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="C166">
-        <v>1.41</v>
+        <v>2.67</v>
       </c>
       <c r="D166">
-        <v>7.9</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B167">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="D167">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1041</v>
+        <v>554</v>
       </c>
       <c r="B168">
-        <v>7.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C168">
-        <v>1.08</v>
+        <v>0.74</v>
       </c>
       <c r="D168">
-        <v>7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B169">
-        <v>6.8</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C169">
+        <v>1.41</v>
       </c>
       <c r="D169">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B170">
-        <v>6.5</v>
+        <v>7.8</v>
+      </c>
+      <c r="C170">
+        <v>0.54</v>
       </c>
       <c r="D170">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>555</v>
+        <v>1041</v>
       </c>
       <c r="B171">
-        <v>6.1</v>
+        <v>7.3</v>
+      </c>
+      <c r="C171">
+        <v>1.08</v>
       </c>
       <c r="D171">
-        <v>6.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B172">
-        <v>6.1</v>
-      </c>
-      <c r="C172">
-        <v>2.11</v>
+        <v>6.8</v>
       </c>
       <c r="D172">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>679</v>
+        <v>1043</v>
       </c>
       <c r="B173">
-        <v>5.8</v>
-      </c>
-      <c r="C173">
-        <v>0.45</v>
+        <v>6.5</v>
       </c>
       <c r="D173">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B174">
-        <v>5.6</v>
-      </c>
-      <c r="C174">
-        <v>0.44</v>
+        <v>6.1</v>
       </c>
       <c r="D174">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B175">
-        <v>5.4</v>
+        <v>6.1</v>
+      </c>
+      <c r="C175">
+        <v>2.11</v>
       </c>
       <c r="D175">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1046</v>
+        <v>679</v>
       </c>
       <c r="B176">
-        <v>5</v>
+        <v>5.8</v>
+      </c>
+      <c r="C176">
+        <v>0.45</v>
       </c>
       <c r="D176">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1047</v>
+        <v>556</v>
       </c>
       <c r="B177">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
+      </c>
+      <c r="C177">
+        <v>0.44</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B178">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D178">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>680</v>
+        <v>1046</v>
       </c>
       <c r="B179">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>557</v>
+        <v>1047</v>
       </c>
       <c r="B180">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D180">
         <v>5</v>
-      </c>
-      <c r="D180">
-        <v>4.8</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B181">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D181">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1050</v>
+        <v>680</v>
       </c>
       <c r="B182">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D182">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1051</v>
+        <v>557</v>
       </c>
       <c r="B183">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="D183">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B184">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D184">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>558</v>
+        <v>1050</v>
       </c>
       <c r="B185">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D185">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B186">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D186">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>681</v>
+        <v>1052</v>
       </c>
       <c r="B187">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D187">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1054</v>
+        <v>558</v>
       </c>
       <c r="B188">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D188">
         <v>4.5</v>
@@ -8752,28 +9126,62 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B189">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D189">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1056</v>
+        <v>681</v>
       </c>
       <c r="B190">
         <v>4.5</v>
       </c>
       <c r="D190">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B191">
+        <v>4.5</v>
+      </c>
+      <c r="D191">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B192">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D192">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B193">
+        <v>4.5</v>
+      </c>
+      <c r="D193">
         <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8782,10 +9190,13 @@
   <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -13918,6 +14329,2647 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B2">
+        <v>62.4</v>
+      </c>
+      <c r="C2">
+        <v>1.71</v>
+      </c>
+      <c r="D2">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B3">
+        <v>62.3</v>
+      </c>
+      <c r="C3">
+        <v>1.71</v>
+      </c>
+      <c r="D3">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B4">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B5">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B6">
+        <v>62.3</v>
+      </c>
+      <c r="C6">
+        <v>0.74</v>
+      </c>
+      <c r="D6">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7">
+        <v>62.4</v>
+      </c>
+      <c r="C7">
+        <v>1.88</v>
+      </c>
+      <c r="D7">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B8">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9">
+        <v>62.2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>62.3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12">
+        <v>62.4</v>
+      </c>
+      <c r="C12">
+        <v>1.51</v>
+      </c>
+      <c r="D12">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B13">
+        <v>62.3</v>
+      </c>
+      <c r="C13">
+        <v>1.72</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>912</v>
+      </c>
+      <c r="B14">
+        <v>62.2</v>
+      </c>
+      <c r="C14">
+        <v>3.43</v>
+      </c>
+      <c r="D14">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>913</v>
+      </c>
+      <c r="B15">
+        <v>61.9</v>
+      </c>
+      <c r="C15">
+        <v>1.96</v>
+      </c>
+      <c r="D15">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16">
+        <v>61.9</v>
+      </c>
+      <c r="C16">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D16">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B17">
+        <v>61.7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>915</v>
+      </c>
+      <c r="B18">
+        <v>61.7</v>
+      </c>
+      <c r="C18">
+        <v>-0.67</v>
+      </c>
+      <c r="D18">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B19">
+        <v>61.7</v>
+      </c>
+      <c r="C19">
+        <v>0.13</v>
+      </c>
+      <c r="D19">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>916</v>
+      </c>
+      <c r="B20">
+        <v>61.7</v>
+      </c>
+      <c r="C20">
+        <v>0.13</v>
+      </c>
+      <c r="D20">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>917</v>
+      </c>
+      <c r="B21">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>918</v>
+      </c>
+      <c r="B22">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>919</v>
+      </c>
+      <c r="B23">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>920</v>
+      </c>
+      <c r="B24">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>921</v>
+      </c>
+      <c r="B25">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>922</v>
+      </c>
+      <c r="B26">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>923</v>
+      </c>
+      <c r="B27">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>924</v>
+      </c>
+      <c r="B28">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>925</v>
+      </c>
+      <c r="B29">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>926</v>
+      </c>
+      <c r="B30">
+        <v>61.4</v>
+      </c>
+      <c r="C30">
+        <v>-0.12</v>
+      </c>
+      <c r="D30">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>927</v>
+      </c>
+      <c r="B31">
+        <v>61.7</v>
+      </c>
+      <c r="C31">
+        <v>0.38</v>
+      </c>
+      <c r="D31">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>928</v>
+      </c>
+      <c r="B32">
+        <v>61.5</v>
+      </c>
+      <c r="C32">
+        <v>0.41</v>
+      </c>
+      <c r="D32">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>929</v>
+      </c>
+      <c r="B33">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>930</v>
+      </c>
+      <c r="B34">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>931</v>
+      </c>
+      <c r="B35">
+        <v>60.2</v>
+      </c>
+      <c r="C35">
+        <v>-5.99</v>
+      </c>
+      <c r="D35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>473</v>
+      </c>
+      <c r="B36">
+        <v>62.7</v>
+      </c>
+      <c r="C36">
+        <v>-4.01</v>
+      </c>
+      <c r="D36">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>932</v>
+      </c>
+      <c r="B37">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>933</v>
+      </c>
+      <c r="B38">
+        <v>63.4</v>
+      </c>
+      <c r="C38">
+        <v>3.75</v>
+      </c>
+      <c r="D38">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>934</v>
+      </c>
+      <c r="B39">
+        <v>63.3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>935</v>
+      </c>
+      <c r="B40">
+        <v>63.2</v>
+      </c>
+      <c r="C40">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D40">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>590</v>
+      </c>
+      <c r="B41">
+        <v>63.2</v>
+      </c>
+      <c r="C41">
+        <v>0.75</v>
+      </c>
+      <c r="D41">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>936</v>
+      </c>
+      <c r="B42">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>937</v>
+      </c>
+      <c r="B43">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>938</v>
+      </c>
+      <c r="B44">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>939</v>
+      </c>
+      <c r="B45">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>940</v>
+      </c>
+      <c r="B46">
+        <v>62.9</v>
+      </c>
+      <c r="C46">
+        <v>-0.75</v>
+      </c>
+      <c r="D46">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>483</v>
+      </c>
+      <c r="B47">
+        <v>62.9</v>
+      </c>
+      <c r="C47">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="D47">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>941</v>
+      </c>
+      <c r="B48">
+        <v>63.1</v>
+      </c>
+      <c r="C48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D48">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>942</v>
+      </c>
+      <c r="B49">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>599</v>
+      </c>
+      <c r="B50">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>943</v>
+      </c>
+      <c r="B51">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>944</v>
+      </c>
+      <c r="B52">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>945</v>
+      </c>
+      <c r="B53">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>946</v>
+      </c>
+      <c r="B54">
+        <v>62.7</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>947</v>
+      </c>
+      <c r="B55">
+        <v>62.7</v>
+      </c>
+      <c r="C55">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="D55">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>491</v>
+      </c>
+      <c r="B56">
+        <v>62.9</v>
+      </c>
+      <c r="C56">
+        <v>-0.27</v>
+      </c>
+      <c r="D56">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>948</v>
+      </c>
+      <c r="B57">
+        <v>62.9</v>
+      </c>
+      <c r="C57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D57">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>606</v>
+      </c>
+      <c r="B58">
+        <v>62.9</v>
+      </c>
+      <c r="C58">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D58">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>949</v>
+      </c>
+      <c r="B59">
+        <v>62.9</v>
+      </c>
+      <c r="C59">
+        <v>-0.26</v>
+      </c>
+      <c r="D59">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>950</v>
+      </c>
+      <c r="B60">
+        <v>62.9</v>
+      </c>
+      <c r="C60">
+        <v>-2.12</v>
+      </c>
+      <c r="D60">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>951</v>
+      </c>
+      <c r="B61">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>952</v>
+      </c>
+      <c r="B62">
+        <v>62.7</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63">
+        <v>62.7</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>953</v>
+      </c>
+      <c r="B64">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>500</v>
+      </c>
+      <c r="B65">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>954</v>
+      </c>
+      <c r="B66">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>614</v>
+      </c>
+      <c r="B67">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>955</v>
+      </c>
+      <c r="B68">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>956</v>
+      </c>
+      <c r="B69">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>957</v>
+      </c>
+      <c r="B70">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>958</v>
+      </c>
+      <c r="B71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>959</v>
+      </c>
+      <c r="B72">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>960</v>
+      </c>
+      <c r="B73">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>509</v>
+      </c>
+      <c r="B74">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>961</v>
+      </c>
+      <c r="B75">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>962</v>
+      </c>
+      <c r="B76">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>963</v>
+      </c>
+      <c r="B77">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>964</v>
+      </c>
+      <c r="B78">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>965</v>
+      </c>
+      <c r="B79">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>966</v>
+      </c>
+      <c r="B80">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>967</v>
+      </c>
+      <c r="B81">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>516</v>
+      </c>
+      <c r="B82">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>968</v>
+      </c>
+      <c r="B83">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>631</v>
+      </c>
+      <c r="B84">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>969</v>
+      </c>
+      <c r="B85">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>970</v>
+      </c>
+      <c r="B86">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>971</v>
+      </c>
+      <c r="B87">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>972</v>
+      </c>
+      <c r="B88">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>973</v>
+      </c>
+      <c r="B89">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>974</v>
+      </c>
+      <c r="B90">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>975</v>
+      </c>
+      <c r="B91">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>976</v>
+      </c>
+      <c r="B92">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>977</v>
+      </c>
+      <c r="B93">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>978</v>
+      </c>
+      <c r="B94">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>979</v>
+      </c>
+      <c r="B95">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>980</v>
+      </c>
+      <c r="B96">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>981</v>
+      </c>
+      <c r="B97">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>982</v>
+      </c>
+      <c r="B98">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>983</v>
+      </c>
+      <c r="B99">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>984</v>
+      </c>
+      <c r="B100">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>985</v>
+      </c>
+      <c r="B101">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>536</v>
+      </c>
+      <c r="B102">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>986</v>
+      </c>
+      <c r="B103">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>651</v>
+      </c>
+      <c r="B104">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>539</v>
+      </c>
+      <c r="B105">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>987</v>
+      </c>
+      <c r="B106">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>988</v>
+      </c>
+      <c r="B107">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>989</v>
+      </c>
+      <c r="B108">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>990</v>
+      </c>
+      <c r="B109">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>991</v>
+      </c>
+      <c r="B110">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>992</v>
+      </c>
+      <c r="B111">
+        <v>62.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B2">
+        <v>11.012</v>
+      </c>
+      <c r="C2">
+        <v>1.73</v>
+      </c>
+      <c r="D2">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B3">
+        <v>10.44</v>
+      </c>
+      <c r="C3">
+        <v>0.93</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4">
+        <v>10.512</v>
+      </c>
+      <c r="C4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B5">
+        <v>10.686999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.69</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B6">
+        <v>10.28</v>
+      </c>
+      <c r="C6">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B7">
+        <v>11.17</v>
+      </c>
+      <c r="C7">
+        <v>2.75</v>
+      </c>
+      <c r="D7">
+        <v>10.475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B8">
+        <v>11.04</v>
+      </c>
+      <c r="C8">
+        <v>-2.76</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B9">
+        <v>11.303000000000001</v>
+      </c>
+      <c r="C9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B10">
+        <v>11.680999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.56</v>
+      </c>
+      <c r="D10">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B11">
+        <v>11.680999999999999</v>
+      </c>
+      <c r="C11">
+        <v>1.49</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B12">
+        <v>11.343999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B13">
+        <v>11.263</v>
+      </c>
+      <c r="C13">
+        <v>0.65</v>
+      </c>
+      <c r="D13">
+        <v>10.925000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B14">
+        <v>11.448</v>
+      </c>
+      <c r="C14">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D14">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B15">
+        <v>10.775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B16">
+        <v>11.090999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B17">
+        <v>10.602</v>
+      </c>
+      <c r="C17">
+        <v>0.22</v>
+      </c>
+      <c r="D17">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B18">
+        <v>10.629</v>
+      </c>
+      <c r="C18">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="D18">
+        <v>10.925000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B19">
+        <v>11.098000000000001</v>
+      </c>
+      <c r="C19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B20">
+        <v>10.185</v>
+      </c>
+      <c r="C20">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D20">
+        <v>9.2810000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B21">
+        <v>9.4830000000000005</v>
+      </c>
+      <c r="C21">
+        <v>-0.61</v>
+      </c>
+      <c r="D21">
+        <v>9.3879999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B22">
+        <v>9.1929999999999996</v>
+      </c>
+      <c r="C22">
+        <v>2.92</v>
+      </c>
+      <c r="D22">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B23">
+        <v>8.2880000000000003</v>
+      </c>
+      <c r="C23">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D23">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B24">
+        <v>7.5259999999999998</v>
+      </c>
+      <c r="C24">
+        <v>1.36</v>
+      </c>
+      <c r="D24">
+        <v>6.9950000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B25">
+        <v>7.0990000000000002</v>
+      </c>
+      <c r="C25">
+        <v>1.23</v>
+      </c>
+      <c r="D25">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B26">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B27">
+        <v>6.766</v>
+      </c>
+      <c r="C27">
+        <v>-0.9</v>
+      </c>
+      <c r="D27">
+        <v>6.9160000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B28">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B29">
+        <v>6.6109999999999998</v>
+      </c>
+      <c r="C29">
+        <v>-0.15</v>
+      </c>
+      <c r="D29">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B30">
+        <v>6.4509999999999996</v>
+      </c>
+      <c r="C30">
+        <v>-0.34</v>
+      </c>
+      <c r="D30">
+        <v>6.6849999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B31">
+        <v>6.7169999999999996</v>
+      </c>
+      <c r="C31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B32">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="C32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D32">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B33">
+        <v>5.4470000000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.2</v>
+      </c>
+      <c r="D33">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B34">
+        <v>4.63</v>
+      </c>
+      <c r="C34">
+        <v>0.1</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B35">
+        <v>5.7690000000000001</v>
+      </c>
+      <c r="C35">
+        <v>-1.54</v>
+      </c>
+      <c r="D35">
+        <v>6.8419999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B36">
+        <v>7.0119999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0.7</v>
+      </c>
+      <c r="D36">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B37">
+        <v>7.1539999999999999</v>
+      </c>
+      <c r="C37">
+        <v>1.64</v>
+      </c>
+      <c r="D37">
+        <v>6.476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B38">
+        <v>6.73</v>
+      </c>
+      <c r="C38">
+        <v>-2.62</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B39">
+        <v>6.915</v>
+      </c>
+      <c r="C39">
+        <v>-3.21</v>
+      </c>
+      <c r="D39">
+        <v>7.2329999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B40">
+        <v>7.34</v>
+      </c>
+      <c r="C40">
+        <v>3.46</v>
+      </c>
+      <c r="D40">
+        <v>7.0179999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B41">
+        <v>7.1</v>
+      </c>
+      <c r="C41">
+        <v>-0.03</v>
+      </c>
+      <c r="D41">
+        <v>7.0279999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B42">
+        <v>7.15</v>
+      </c>
+      <c r="C42">
+        <v>-0.89</v>
+      </c>
+      <c r="D42">
+        <v>7.1909999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B43">
+        <v>7.1369999999999996</v>
+      </c>
+      <c r="C43">
+        <v>-0.36</v>
+      </c>
+      <c r="D43">
+        <v>7.3109999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B44">
+        <v>7.165</v>
+      </c>
+      <c r="C44">
+        <v>0.11</v>
+      </c>
+      <c r="D44">
+        <v>7.3170000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B45">
+        <v>7.2789999999999999</v>
+      </c>
+      <c r="C45">
+        <v>-0.47</v>
+      </c>
+      <c r="D45">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B46">
+        <v>7.2569999999999997</v>
+      </c>
+      <c r="C46">
+        <v>0.63</v>
+      </c>
+      <c r="D46">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B47">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.78</v>
+      </c>
+      <c r="D47">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B48">
+        <v>7.0579999999999998</v>
+      </c>
+      <c r="C48">
+        <v>-2.06</v>
+      </c>
+      <c r="D48">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B49">
+        <v>7.4779999999999998</v>
+      </c>
+      <c r="C49">
+        <v>1.23</v>
+      </c>
+      <c r="D49">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B50">
+        <v>7.4359999999999999</v>
+      </c>
+      <c r="C50">
+        <v>2.52</v>
+      </c>
+      <c r="D50">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B51">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="C51">
+        <v>-1.32</v>
+      </c>
+      <c r="D51">
+        <v>7.0629999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B52">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.63</v>
+      </c>
+      <c r="D52">
+        <v>6.9950000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B53">
+        <v>7.3520000000000003</v>
+      </c>
+      <c r="C53">
+        <v>-0.79</v>
+      </c>
+      <c r="D53">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B54">
+        <v>7.2039999999999997</v>
+      </c>
+      <c r="C54">
+        <v>1.47</v>
+      </c>
+      <c r="D54">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B55">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="C55">
+        <v>1.26</v>
+      </c>
+      <c r="D55">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B56">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="C56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D56">
+        <v>6.6459999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B57">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.22</v>
+      </c>
+      <c r="D57">
+        <v>6.5830000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B58">
+        <v>6.91</v>
+      </c>
+      <c r="C58">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D58">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B59">
+        <v>6.8330000000000002</v>
+      </c>
+      <c r="C59">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D59">
+        <v>6.101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B60">
+        <v>6.5860000000000003</v>
+      </c>
+      <c r="C60">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="D60">
+        <v>6.173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B61">
+        <v>6.601</v>
+      </c>
+      <c r="C61">
+        <v>7.82</v>
+      </c>
+      <c r="D61">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B62">
+        <v>6.359</v>
+      </c>
+      <c r="C62">
+        <v>-0.71</v>
+      </c>
+      <c r="D62">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B63">
+        <v>6.282</v>
+      </c>
+      <c r="C63">
+        <v>-0.88</v>
+      </c>
+      <c r="D63">
+        <v>6.0380000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B64">
+        <v>6.38</v>
+      </c>
+      <c r="C64">
+        <v>-0.41</v>
+      </c>
+      <c r="D64">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B65">
+        <v>6.2789999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.01</v>
+      </c>
+      <c r="D65">
+        <v>6.0910000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B66">
+        <v>6.3</v>
+      </c>
+      <c r="C66">
+        <v>-0.17</v>
+      </c>
+      <c r="D66">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B67">
+        <v>6.2030000000000003</v>
+      </c>
+      <c r="C67">
+        <v>0.84</v>
+      </c>
+      <c r="D67">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B68">
+        <v>6.3339999999999996</v>
+      </c>
+      <c r="C68">
+        <v>1.77</v>
+      </c>
+      <c r="D68">
+        <v>5.7750000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B69">
+        <v>5.81</v>
+      </c>
+      <c r="C69">
+        <v>-1.87</v>
+      </c>
+      <c r="D69">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B70">
+        <v>6.1029999999999998</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B71">
+        <v>5.8129999999999997</v>
+      </c>
+      <c r="C71">
+        <v>0.84</v>
+      </c>
+      <c r="D71">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B72">
+        <v>5.931</v>
+      </c>
+      <c r="C72">
+        <v>1.03</v>
+      </c>
+      <c r="D72">
+        <v>5.6550000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B73">
+        <v>5.6459999999999999</v>
+      </c>
+      <c r="C73">
+        <v>1.62</v>
+      </c>
+      <c r="D73">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B74">
+        <v>5.9640000000000004</v>
+      </c>
+      <c r="C74">
+        <v>-0.51</v>
+      </c>
+      <c r="D74">
+        <v>5.5679999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B75">
+        <v>5.9710000000000001</v>
+      </c>
+      <c r="C75">
+        <v>-0.23</v>
+      </c>
+      <c r="D75">
+        <v>5.5549999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B76">
+        <v>5.5910000000000002</v>
+      </c>
+      <c r="C76">
+        <v>0.21</v>
+      </c>
+      <c r="D76">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B77">
+        <v>5.8680000000000003</v>
+      </c>
+      <c r="C77">
+        <v>-0.1</v>
+      </c>
+      <c r="D77">
+        <v>5.508</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B78">
+        <v>5.6769999999999996</v>
+      </c>
+      <c r="C78">
+        <v>-1.5</v>
+      </c>
+      <c r="D78">
+        <v>5.7240000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B79">
+        <v>5.9619999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B80">
+        <v>5.742</v>
+      </c>
+      <c r="C80">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D80">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B81">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="C81">
+        <v>-1.32</v>
+      </c>
+      <c r="D81">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B82">
+        <v>5.8029999999999999</v>
+      </c>
+      <c r="C82">
+        <v>0.75</v>
+      </c>
+      <c r="D82">
+        <v>5.6719999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B83">
+        <v>6.1289999999999996</v>
+      </c>
+      <c r="C83">
+        <v>2.73</v>
+      </c>
+      <c r="D83">
+        <v>5.431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B84">
+        <v>5.77</v>
+      </c>
+      <c r="C84">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D84">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B85">
+        <v>6.0119999999999996</v>
+      </c>
+      <c r="C85">
+        <v>0.24</v>
+      </c>
+      <c r="D85">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B86">
+        <v>5.8449999999999998</v>
+      </c>
+      <c r="C86">
+        <v>0.81</v>
+      </c>
+      <c r="D86">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B87">
+        <v>5.7080000000000002</v>
+      </c>
+      <c r="C87">
+        <v>0.08</v>
+      </c>
+      <c r="D87">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B88">
+        <v>5.7729999999999997</v>
+      </c>
+      <c r="C88">
+        <v>-0.49</v>
+      </c>
+      <c r="D88">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B89">
+        <v>5.4880000000000004</v>
+      </c>
+      <c r="C89">
+        <v>0.59</v>
+      </c>
+      <c r="D89">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B90">
+        <v>5.4669999999999996</v>
+      </c>
+      <c r="C90">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D90">
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B91">
+        <v>6.056</v>
+      </c>
+      <c r="C91">
+        <v>2.91</v>
+      </c>
+      <c r="D91">
+        <v>5.2880000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B92">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="C92">
+        <v>-0.31</v>
+      </c>
+      <c r="D92">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B93">
+        <v>5.5629999999999997</v>
+      </c>
+      <c r="C93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D93">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B94">
+        <v>5.5979999999999999</v>
+      </c>
+      <c r="C94">
+        <v>3.91</v>
+      </c>
+      <c r="D94">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B95">
+        <v>5.21</v>
+      </c>
+      <c r="C95">
+        <v>-1.23</v>
+      </c>
+      <c r="D95">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B96">
+        <v>5.4660000000000002</v>
+      </c>
+      <c r="C96">
+        <v>1.84</v>
+      </c>
+      <c r="D96">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B97">
+        <v>5.3440000000000003</v>
+      </c>
+      <c r="C97">
+        <v>-0.85</v>
+      </c>
+      <c r="D97">
+        <v>5.0529999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B98">
+        <v>5.13</v>
+      </c>
+      <c r="D98">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B99">
+        <v>4.843</v>
+      </c>
+      <c r="D99">
+        <v>4.8630000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B100">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="D100">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B101">
+        <v>4.9139999999999997</v>
+      </c>
+      <c r="D101">
+        <v>4.8230000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B102">
+        <v>5.3490000000000002</v>
+      </c>
+      <c r="D102">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B103">
+        <v>4.8460000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B104">
+        <v>4.9820000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B105">
+        <v>4.7469999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B106">
+        <v>4.5659999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B107">
+        <v>4.3879999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B108">
+        <v>4.3730000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B109">
+        <v>4.1269999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B110">
+        <v>4.1210000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B111">
+        <v>4.1189999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B112">
+        <v>4.2220000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
